--- a/Outlook_fun/PO.xlsx
+++ b/Outlook_fun/PO.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -434,91 +434,7 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Studiedagar</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2021-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Kivra</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-01-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maja</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2022-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hem</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Betal</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2022-01-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Staples</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022-01-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Netto</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hermods</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2022-03-07</t>
+          <t>volvo</t>
         </is>
       </c>
     </row>
